--- a/data/gdp.xlsx
+++ b/data/gdp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Composite Leading Indicators (MEI)</t>
+  </si>
+  <si>
+    <t>Trend GDP</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -36,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -58,6 +64,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,9 +116,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -128,4782 +146,4790 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C433"/>
+  <dimension ref="A1:C434"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A403" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A434" activeCellId="0" sqref="A434"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.0612244897959"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6734693877551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4285714285714"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7091836734694"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>28870</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B3" s="0" t="n">
         <v>42.106</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C3" s="0" t="n">
         <v>53.634</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>28901</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B4" s="0" t="n">
         <v>42.201</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C4" s="0" t="n">
         <v>53.739</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>28929</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B5" s="0" t="n">
         <v>42.294</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C5" s="0" t="n">
         <v>53.843</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>28960</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B6" s="0" t="n">
         <v>42.385</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C6" s="0" t="n">
         <v>53.946</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>28990</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B7" s="0" t="n">
         <v>42.476</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C7" s="0" t="n">
         <v>54.047</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>29021</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B8" s="0" t="n">
         <v>42.564</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C8" s="0" t="n">
         <v>54.147</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>29051</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B9" s="0" t="n">
         <v>42.652</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C9" s="0" t="n">
         <v>54.246</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>29082</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B10" s="0" t="n">
         <v>42.738</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C10" s="0" t="n">
         <v>54.343</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>29113</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B11" s="0" t="n">
         <v>42.823</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C11" s="0" t="n">
         <v>54.439</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>29143</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B12" s="0" t="n">
         <v>42.906</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C12" s="0" t="n">
         <v>54.533</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>29174</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B13" s="0" t="n">
         <v>42.988</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C13" s="0" t="n">
         <v>54.625</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>29204</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B14" s="0" t="n">
         <v>43.07</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C14" s="0" t="n">
         <v>54.716</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>29235</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B15" s="0" t="n">
         <v>43.15</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C15" s="0" t="n">
         <v>54.806</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>29266</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B16" s="0" t="n">
         <v>43.229</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C16" s="0" t="n">
         <v>54.894</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>29295</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B17" s="0" t="n">
         <v>43.308</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C17" s="0" t="n">
         <v>54.98</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>29326</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B18" s="0" t="n">
         <v>43.386</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C18" s="0" t="n">
         <v>55.065</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>29356</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B19" s="0" t="n">
         <v>43.463</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C19" s="0" t="n">
         <v>55.149</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>29387</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B20" s="0" t="n">
         <v>43.539</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C20" s="0" t="n">
         <v>55.231</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>29417</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B21" s="0" t="n">
         <v>43.616</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C21" s="0" t="n">
         <v>55.311</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>29448</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B22" s="0" t="n">
         <v>43.692</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C22" s="0" t="n">
         <v>55.391</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>29479</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B23" s="0" t="n">
         <v>43.768</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C23" s="0" t="n">
         <v>55.469</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>29509</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B24" s="0" t="n">
         <v>43.844</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C24" s="0" t="n">
         <v>55.545</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>29540</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B25" s="0" t="n">
         <v>43.92</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C25" s="0" t="n">
         <v>55.621</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>29570</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B26" s="0" t="n">
         <v>43.996</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C26" s="0" t="n">
         <v>55.696</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>29601</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B27" s="0" t="n">
         <v>44.073</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C27" s="0" t="n">
         <v>55.769</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>29632</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B28" s="0" t="n">
         <v>44.15</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C28" s="0" t="n">
         <v>55.842</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>29660</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B29" s="0" t="n">
         <v>44.227</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C29" s="0" t="n">
         <v>55.914</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
         <v>29691</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B30" s="0" t="n">
         <v>44.305</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C30" s="0" t="n">
         <v>55.985</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>29721</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B31" s="0" t="n">
         <v>44.384</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C31" s="0" t="n">
         <v>56.055</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
         <v>29752</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B32" s="0" t="n">
         <v>44.464</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C32" s="0" t="n">
         <v>56.125</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
         <v>29782</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B33" s="0" t="n">
         <v>44.545</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C33" s="0" t="n">
         <v>56.194</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
         <v>29813</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B34" s="0" t="n">
         <v>44.626</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C34" s="0" t="n">
         <v>56.262</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
         <v>29844</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B35" s="0" t="n">
         <v>44.71</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C35" s="0" t="n">
         <v>56.331</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
         <v>29874</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B36" s="0" t="n">
         <v>44.794</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C36" s="0" t="n">
         <v>56.399</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
         <v>29905</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B37" s="0" t="n">
         <v>44.881</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C37" s="0" t="n">
         <v>56.467</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
         <v>29935</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B38" s="0" t="n">
         <v>44.968</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C38" s="0" t="n">
         <v>56.535</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
         <v>29966</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B39" s="0" t="n">
         <v>45.058</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C39" s="0" t="n">
         <v>56.602</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
         <v>29997</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B40" s="0" t="n">
         <v>45.15</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C40" s="0" t="n">
         <v>56.67</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
         <v>30025</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B41" s="0" t="n">
         <v>45.244</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C41" s="0" t="n">
         <v>56.739</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
         <v>30056</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B42" s="0" t="n">
         <v>45.34</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C42" s="0" t="n">
         <v>56.807</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
         <v>30086</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B43" s="0" t="n">
         <v>45.439</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C43" s="0" t="n">
         <v>56.876</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
         <v>30117</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B44" s="0" t="n">
         <v>45.54</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C44" s="0" t="n">
         <v>56.945</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
         <v>30147</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B45" s="0" t="n">
         <v>45.644</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C45" s="0" t="n">
         <v>57.015</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
         <v>30178</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B46" s="0" t="n">
         <v>45.75</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C46" s="0" t="n">
         <v>57.085</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
         <v>30209</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B47" s="0" t="n">
         <v>45.859</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C47" s="0" t="n">
         <v>57.157</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
         <v>30239</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B48" s="0" t="n">
         <v>45.971</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C48" s="0" t="n">
         <v>57.229</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
         <v>30270</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B49" s="0" t="n">
         <v>46.086</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C49" s="0" t="n">
         <v>57.302</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
         <v>30300</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B50" s="0" t="n">
         <v>46.204</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C50" s="0" t="n">
         <v>57.376</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
         <v>30331</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B51" s="0" t="n">
         <v>46.324</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C51" s="0" t="n">
         <v>57.451</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
         <v>30362</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B52" s="0" t="n">
         <v>46.448</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C52" s="0" t="n">
         <v>57.527</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
         <v>30390</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B53" s="0" t="n">
         <v>46.574</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C53" s="0" t="n">
         <v>57.605</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
         <v>30421</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B54" s="0" t="n">
         <v>46.704</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C54" s="0" t="n">
         <v>57.684</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
         <v>30451</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B55" s="0" t="n">
         <v>46.836</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C55" s="0" t="n">
         <v>57.764</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
         <v>30482</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B56" s="0" t="n">
         <v>46.971</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C56" s="0" t="n">
         <v>57.845</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
         <v>30512</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B57" s="0" t="n">
         <v>47.108</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C57" s="0" t="n">
         <v>57.928</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
         <v>30543</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B58" s="0" t="n">
         <v>47.248</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C58" s="0" t="n">
         <v>58.012</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
         <v>30574</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B59" s="0" t="n">
         <v>47.391</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C59" s="0" t="n">
         <v>58.098</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
         <v>30604</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B60" s="0" t="n">
         <v>47.536</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C60" s="0" t="n">
         <v>58.186</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
         <v>30635</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B61" s="0" t="n">
         <v>47.683</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C61" s="0" t="n">
         <v>58.275</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
         <v>30665</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B62" s="0" t="n">
         <v>47.833</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C62" s="0" t="n">
         <v>58.365</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
         <v>30696</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B63" s="0" t="n">
         <v>47.985</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C63" s="0" t="n">
         <v>58.458</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
         <v>30727</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B64" s="0" t="n">
         <v>48.139</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C64" s="0" t="n">
         <v>58.551</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
         <v>30756</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B65" s="0" t="n">
         <v>48.294</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C65" s="0" t="n">
         <v>58.647</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
         <v>30787</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B66" s="0" t="n">
         <v>48.452</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C66" s="0" t="n">
         <v>58.744</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
         <v>30817</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B67" s="0" t="n">
         <v>48.611</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C67" s="0" t="n">
         <v>58.844</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
         <v>30848</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B68" s="0" t="n">
         <v>48.772</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C68" s="0" t="n">
         <v>58.944</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
         <v>30878</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B69" s="0" t="n">
         <v>48.934</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C69" s="0" t="n">
         <v>59.047</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
         <v>30909</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B70" s="0" t="n">
         <v>49.098</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C70" s="0" t="n">
         <v>59.152</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
         <v>30940</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B71" s="0" t="n">
         <v>49.263</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C71" s="0" t="n">
         <v>59.258</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
         <v>30970</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B72" s="0" t="n">
         <v>49.429</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C72" s="0" t="n">
         <v>59.366</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
         <v>31001</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B73" s="0" t="n">
         <v>49.596</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C73" s="0" t="n">
         <v>59.476</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
         <v>31031</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B74" s="0" t="n">
         <v>49.765</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C74" s="0" t="n">
         <v>59.588</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
         <v>31062</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B75" s="0" t="n">
         <v>49.934</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C75" s="0" t="n">
         <v>59.702</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
         <v>31093</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B76" s="0" t="n">
         <v>50.104</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C76" s="0" t="n">
         <v>59.818</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
         <v>31121</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B77" s="0" t="n">
         <v>50.274</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C77" s="0" t="n">
         <v>59.936</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
         <v>31152</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B78" s="0" t="n">
         <v>50.445</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C78" s="0" t="n">
         <v>60.056</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
         <v>31182</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B79" s="0" t="n">
         <v>50.617</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C79" s="0" t="n">
         <v>60.177</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
         <v>31213</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B80" s="0" t="n">
         <v>50.789</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C80" s="0" t="n">
         <v>60.301</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
         <v>31243</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B81" s="0" t="n">
         <v>50.962</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C81" s="0" t="n">
         <v>60.427</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
         <v>31274</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B82" s="0" t="n">
         <v>51.135</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C82" s="0" t="n">
         <v>60.554</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
         <v>31305</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B83" s="0" t="n">
         <v>51.308</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C83" s="0" t="n">
         <v>60.684</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
         <v>31335</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B84" s="0" t="n">
         <v>51.482</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C84" s="0" t="n">
         <v>60.815</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
         <v>31366</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B85" s="0" t="n">
         <v>51.655</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C85" s="0" t="n">
         <v>60.949</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
         <v>31396</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B86" s="0" t="n">
         <v>51.829</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C86" s="0" t="n">
         <v>61.084</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
         <v>31427</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B87" s="0" t="n">
         <v>52.002</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C87" s="0" t="n">
         <v>61.221</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
         <v>31458</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B88" s="0" t="n">
         <v>52.176</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C88" s="0" t="n">
         <v>61.361</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
         <v>31486</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B89" s="0" t="n">
         <v>52.349</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C89" s="0" t="n">
         <v>61.502</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
         <v>31517</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B90" s="0" t="n">
         <v>52.522</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C90" s="0" t="n">
         <v>61.645</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
         <v>31547</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B91" s="0" t="n">
         <v>52.695</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C91" s="0" t="n">
         <v>61.79</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
         <v>31578</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B92" s="0" t="n">
         <v>52.868</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C92" s="0" t="n">
         <v>61.937</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
         <v>31608</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B93" s="0" t="n">
         <v>53.04</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C93" s="0" t="n">
         <v>62.086</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
         <v>31639</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B94" s="0" t="n">
         <v>53.212</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C94" s="0" t="n">
         <v>62.237</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
         <v>31670</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B95" s="0" t="n">
         <v>53.383</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C95" s="0" t="n">
         <v>62.39</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
         <v>31700</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B96" s="0" t="n">
         <v>53.554</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C96" s="0" t="n">
         <v>62.545</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
         <v>31731</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B97" s="0" t="n">
         <v>53.725</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C97" s="0" t="n">
         <v>62.702</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
         <v>31761</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B98" s="0" t="n">
         <v>53.895</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C98" s="0" t="n">
         <v>62.86</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
         <v>31792</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B99" s="0" t="n">
         <v>54.064</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C99" s="0" t="n">
         <v>63.02</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
         <v>31823</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B100" s="0" t="n">
         <v>54.233</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C100" s="0" t="n">
         <v>63.183</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
         <v>31851</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B101" s="0" t="n">
         <v>54.401</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C101" s="0" t="n">
         <v>63.346</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
         <v>31882</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B102" s="0" t="n">
         <v>54.568</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C102" s="0" t="n">
         <v>63.512</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
         <v>31912</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B103" s="0" t="n">
         <v>54.734</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C103" s="0" t="n">
         <v>63.679</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
         <v>31943</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B104" s="0" t="n">
         <v>54.9</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C104" s="0" t="n">
         <v>63.848</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
         <v>31973</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B105" s="0" t="n">
         <v>55.065</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C105" s="0" t="n">
         <v>64.019</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
         <v>32004</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B106" s="0" t="n">
         <v>55.229</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C106" s="0" t="n">
         <v>64.191</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
         <v>32035</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B107" s="0" t="n">
         <v>55.392</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C107" s="0" t="n">
         <v>64.364</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
         <v>32065</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B108" s="0" t="n">
         <v>55.553</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C108" s="0" t="n">
         <v>64.539</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
         <v>32096</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B109" s="0" t="n">
         <v>55.714</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C109" s="0" t="n">
         <v>64.715</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
         <v>32126</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B110" s="0" t="n">
         <v>55.874</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C110" s="0" t="n">
         <v>64.892</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
         <v>32157</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B111" s="0" t="n">
         <v>56.032</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C111" s="0" t="n">
         <v>65.07</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
         <v>32188</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B112" s="0" t="n">
         <v>56.189</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C112" s="0" t="n">
         <v>65.249</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
         <v>32217</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B113" s="0" t="n">
         <v>56.345</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C113" s="0" t="n">
         <v>65.429</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
         <v>32248</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B114" s="0" t="n">
         <v>56.5</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C114" s="0" t="n">
         <v>65.61</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
         <v>32278</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B115" s="0" t="n">
         <v>56.653</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C115" s="0" t="n">
         <v>65.791</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
         <v>32309</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B116" s="0" t="n">
         <v>56.804</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C116" s="0" t="n">
         <v>65.973</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
         <v>32339</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B117" s="0" t="n">
         <v>56.955</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C117" s="0" t="n">
         <v>66.156</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
         <v>32370</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B118" s="0" t="n">
         <v>57.104</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C118" s="0" t="n">
         <v>66.338</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
         <v>32401</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B119" s="0" t="n">
         <v>57.251</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C119" s="0" t="n">
         <v>66.521</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
         <v>32431</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B120" s="0" t="n">
         <v>57.397</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C120" s="0" t="n">
         <v>66.704</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
         <v>32462</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B121" s="0" t="n">
         <v>57.541</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C121" s="0" t="n">
         <v>66.887</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
         <v>32492</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B122" s="0" t="n">
         <v>57.683</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C122" s="0" t="n">
         <v>67.069</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
         <v>32523</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B123" s="0" t="n">
         <v>57.824</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C123" s="0" t="n">
         <v>67.251</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
         <v>32554</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B124" s="0" t="n">
         <v>57.964</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C124" s="0" t="n">
         <v>67.433</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
         <v>32582</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B125" s="0" t="n">
         <v>58.102</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C125" s="0" t="n">
         <v>67.614</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
         <v>32613</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B126" s="0" t="n">
         <v>58.238</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C126" s="0" t="n">
         <v>67.794</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
         <v>32643</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B127" s="0" t="n">
         <v>58.373</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C127" s="0" t="n">
         <v>67.973</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
         <v>32674</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B128" s="0" t="n">
         <v>58.506</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C128" s="0" t="n">
         <v>68.152</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
         <v>32704</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B129" s="0" t="n">
         <v>58.637</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C129" s="0" t="n">
         <v>68.329</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
         <v>32735</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B130" s="0" t="n">
         <v>58.768</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C130" s="0" t="n">
         <v>68.505</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
         <v>32766</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B131" s="0" t="n">
         <v>58.896</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C131" s="0" t="n">
         <v>68.68</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
         <v>32796</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B132" s="0" t="n">
         <v>59.024</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C132" s="0" t="n">
         <v>68.854</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
         <v>32827</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B133" s="0" t="n">
         <v>59.149</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C133" s="0" t="n">
         <v>69.026</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
         <v>32857</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B134" s="0" t="n">
         <v>59.274</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C134" s="0" t="n">
         <v>69.196</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
         <v>32888</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B135" s="0" t="n">
         <v>59.398</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C135" s="0" t="n">
         <v>69.365</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
         <v>32919</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B136" s="0" t="n">
         <v>59.52</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C136" s="0" t="n">
         <v>69.531</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
         <v>32947</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B137" s="0" t="n">
         <v>59.641</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C137" s="0" t="n">
         <v>69.696</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
         <v>32978</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B138" s="0" t="n">
         <v>59.761</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C138" s="0" t="n">
         <v>69.859</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
         <v>33008</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B139" s="0" t="n">
         <v>59.881</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C139" s="0" t="n">
         <v>70.02</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
         <v>33039</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B140" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C140" s="0" t="n">
         <v>70.178</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
         <v>33069</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B141" s="0" t="n">
         <v>60.118</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C141" s="0" t="n">
         <v>70.335</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
         <v>33100</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B142" s="0" t="n">
         <v>60.235</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C142" s="0" t="n">
         <v>70.489</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
         <v>33131</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B143" s="0" t="n">
         <v>60.353</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C143" s="0" t="n">
         <v>70.641</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
         <v>33161</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B144" s="0" t="n">
         <v>60.47</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C144" s="0" t="n">
         <v>70.791</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
         <v>33192</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B145" s="0" t="n">
         <v>60.587</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C145" s="0" t="n">
         <v>70.938</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="n">
         <v>33222</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B146" s="0" t="n">
         <v>60.704</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C146" s="0" t="n">
         <v>71.082</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="n">
         <v>33253</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B147" s="0" t="n">
         <v>60.821</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C147" s="0" t="n">
         <v>71.225</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="n">
         <v>33284</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B148" s="0" t="n">
         <v>60.938</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C148" s="0" t="n">
         <v>71.365</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="n">
         <v>33312</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B149" s="0" t="n">
         <v>61.056</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C149" s="0" t="n">
         <v>71.503</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="n">
         <v>33343</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B150" s="0" t="n">
         <v>61.174</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C150" s="0" t="n">
         <v>71.638</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="n">
         <v>33373</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B151" s="0" t="n">
         <v>61.293</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C151" s="0" t="n">
         <v>71.771</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="n">
         <v>33404</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B152" s="0" t="n">
         <v>61.413</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C152" s="0" t="n">
         <v>71.901</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="n">
         <v>33434</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B153" s="0" t="n">
         <v>61.534</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C153" s="0" t="n">
         <v>72.029</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="n">
         <v>33465</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B154" s="0" t="n">
         <v>61.656</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C154" s="0" t="n">
         <v>72.154</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="n">
         <v>33496</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B155" s="0" t="n">
         <v>61.779</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C155" s="0" t="n">
         <v>72.278</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="n">
         <v>33526</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B156" s="0" t="n">
         <v>61.903</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C156" s="0" t="n">
         <v>72.399</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="n">
         <v>33557</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B157" s="0" t="n">
         <v>62.028</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C157" s="0" t="n">
         <v>72.518</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="n">
         <v>33587</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B158" s="0" t="n">
         <v>62.154</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C158" s="0" t="n">
         <v>72.634</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="n">
         <v>33618</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B159" s="0" t="n">
         <v>62.282</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C159" s="0" t="n">
         <v>72.749</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="n">
         <v>33649</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B160" s="0" t="n">
         <v>62.412</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C160" s="0" t="n">
         <v>72.862</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="n">
         <v>33678</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B161" s="0" t="n">
         <v>62.542</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C161" s="0" t="n">
         <v>72.973</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="n">
         <v>33709</v>
       </c>
-      <c r="B161" s="0" t="n">
+      <c r="B162" s="0" t="n">
         <v>62.675</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C162" s="0" t="n">
         <v>73.083</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="n">
         <v>33739</v>
       </c>
-      <c r="B162" s="0" t="n">
+      <c r="B163" s="0" t="n">
         <v>62.809</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C163" s="0" t="n">
         <v>73.19</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="n">
         <v>33770</v>
       </c>
-      <c r="B163" s="0" t="n">
+      <c r="B164" s="0" t="n">
         <v>62.944</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C164" s="0" t="n">
         <v>73.297</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="n">
         <v>33800</v>
       </c>
-      <c r="B164" s="0" t="n">
+      <c r="B165" s="0" t="n">
         <v>63.082</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C165" s="0" t="n">
         <v>73.402</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="n">
         <v>33831</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B166" s="0" t="n">
         <v>63.221</v>
       </c>
-      <c r="C165" s="0" t="n">
+      <c r="C166" s="0" t="n">
         <v>73.505</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="n">
         <v>33862</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B167" s="0" t="n">
         <v>63.361</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C167" s="0" t="n">
         <v>73.608</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="n">
         <v>33892</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B168" s="0" t="n">
         <v>63.504</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C168" s="0" t="n">
         <v>73.71</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="n">
         <v>33923</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B169" s="0" t="n">
         <v>63.648</v>
       </c>
-      <c r="C168" s="0" t="n">
+      <c r="C169" s="0" t="n">
         <v>73.811</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="n">
         <v>33953</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B170" s="0" t="n">
         <v>63.794</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C170" s="0" t="n">
         <v>73.911</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="n">
         <v>33984</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B171" s="0" t="n">
         <v>63.942</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C171" s="0" t="n">
         <v>74.011</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="n">
         <v>34015</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B172" s="0" t="n">
         <v>64.092</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C172" s="0" t="n">
         <v>74.111</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="n">
         <v>34043</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B173" s="0" t="n">
         <v>64.243</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C173" s="0" t="n">
         <v>74.212</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="n">
         <v>34074</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B174" s="0" t="n">
         <v>64.397</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C174" s="0" t="n">
         <v>74.313</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="n">
         <v>34104</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B175" s="0" t="n">
         <v>64.553</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C175" s="0" t="n">
         <v>74.415</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="n">
         <v>34135</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B176" s="0" t="n">
         <v>64.71</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C176" s="0" t="n">
         <v>74.517</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="n">
         <v>34165</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B177" s="0" t="n">
         <v>64.87</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C177" s="0" t="n">
         <v>74.619</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="n">
         <v>34196</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B178" s="0" t="n">
         <v>65.031</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C178" s="0" t="n">
         <v>74.722</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="n">
         <v>34227</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B179" s="0" t="n">
         <v>65.195</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C179" s="0" t="n">
         <v>74.825</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="n">
         <v>34257</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B180" s="0" t="n">
         <v>65.361</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C180" s="0" t="n">
         <v>74.929</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="n">
         <v>34288</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B181" s="0" t="n">
         <v>65.529</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C181" s="0" t="n">
         <v>75.034</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="n">
         <v>34318</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B182" s="0" t="n">
         <v>65.698</v>
       </c>
-      <c r="C181" s="0" t="n">
+      <c r="C182" s="0" t="n">
         <v>75.14</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="n">
         <v>34349</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B183" s="0" t="n">
         <v>65.87</v>
       </c>
-      <c r="C182" s="0" t="n">
+      <c r="C183" s="0" t="n">
         <v>75.247</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="n">
         <v>34380</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B184" s="0" t="n">
         <v>66.044</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C184" s="0" t="n">
         <v>75.355</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="n">
         <v>34408</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B185" s="0" t="n">
         <v>66.22</v>
       </c>
-      <c r="C184" s="0" t="n">
+      <c r="C185" s="0" t="n">
         <v>75.464</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="n">
         <v>34439</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B186" s="0" t="n">
         <v>66.398</v>
       </c>
-      <c r="C185" s="0" t="n">
+      <c r="C186" s="0" t="n">
         <v>75.574</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="n">
         <v>34469</v>
       </c>
-      <c r="B186" s="0" t="n">
+      <c r="B187" s="0" t="n">
         <v>66.578</v>
       </c>
-      <c r="C186" s="0" t="n">
+      <c r="C187" s="0" t="n">
         <v>75.685</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="n">
         <v>34500</v>
       </c>
-      <c r="B187" s="0" t="n">
+      <c r="B188" s="0" t="n">
         <v>66.76</v>
       </c>
-      <c r="C187" s="0" t="n">
+      <c r="C188" s="0" t="n">
         <v>75.798</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="n">
         <v>34530</v>
       </c>
-      <c r="B188" s="0" t="n">
+      <c r="B189" s="0" t="n">
         <v>66.944</v>
       </c>
-      <c r="C188" s="0" t="n">
+      <c r="C189" s="0" t="n">
         <v>75.912</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="n">
         <v>34561</v>
       </c>
-      <c r="B189" s="0" t="n">
+      <c r="B190" s="0" t="n">
         <v>67.13</v>
       </c>
-      <c r="C189" s="0" t="n">
+      <c r="C190" s="0" t="n">
         <v>76.027</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="n">
         <v>34592</v>
       </c>
-      <c r="B190" s="0" t="n">
+      <c r="B191" s="0" t="n">
         <v>67.318</v>
       </c>
-      <c r="C190" s="0" t="n">
+      <c r="C191" s="0" t="n">
         <v>76.144</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="n">
         <v>34622</v>
       </c>
-      <c r="B191" s="0" t="n">
+      <c r="B192" s="0" t="n">
         <v>67.509</v>
       </c>
-      <c r="C191" s="0" t="n">
+      <c r="C192" s="0" t="n">
         <v>76.262</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="n">
         <v>34653</v>
       </c>
-      <c r="B192" s="0" t="n">
+      <c r="B193" s="0" t="n">
         <v>67.701</v>
       </c>
-      <c r="C192" s="0" t="n">
+      <c r="C193" s="0" t="n">
         <v>76.382</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="n">
         <v>34683</v>
       </c>
-      <c r="B193" s="0" t="n">
+      <c r="B194" s="0" t="n">
         <v>67.895</v>
       </c>
-      <c r="C193" s="0" t="n">
+      <c r="C194" s="0" t="n">
         <v>76.503</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="n">
         <v>34714</v>
       </c>
-      <c r="B194" s="0" t="n">
+      <c r="B195" s="0" t="n">
         <v>68.091</v>
       </c>
-      <c r="C194" s="0" t="n">
+      <c r="C195" s="0" t="n">
         <v>76.626</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="n">
         <v>34745</v>
       </c>
-      <c r="B195" s="0" t="n">
+      <c r="B196" s="0" t="n">
         <v>68.29</v>
       </c>
-      <c r="C195" s="0" t="n">
+      <c r="C196" s="0" t="n">
         <v>76.75</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="n">
         <v>34773</v>
       </c>
-      <c r="B196" s="0" t="n">
+      <c r="B197" s="0" t="n">
         <v>68.49</v>
       </c>
-      <c r="C196" s="0" t="n">
+      <c r="C197" s="0" t="n">
         <v>76.876</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="n">
         <v>34804</v>
       </c>
-      <c r="B197" s="0" t="n">
+      <c r="B198" s="0" t="n">
         <v>68.693</v>
       </c>
-      <c r="C197" s="0" t="n">
+      <c r="C198" s="0" t="n">
         <v>77.003</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="n">
         <v>34834</v>
       </c>
-      <c r="B198" s="0" t="n">
+      <c r="B199" s="0" t="n">
         <v>68.897</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C199" s="0" t="n">
         <v>77.133</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="n">
         <v>34865</v>
       </c>
-      <c r="B199" s="0" t="n">
+      <c r="B200" s="0" t="n">
         <v>69.104</v>
       </c>
-      <c r="C199" s="0" t="n">
+      <c r="C200" s="0" t="n">
         <v>77.263</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="n">
         <v>34895</v>
       </c>
-      <c r="B200" s="0" t="n">
+      <c r="B201" s="0" t="n">
         <v>69.313</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="C201" s="0" t="n">
         <v>77.396</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="n">
         <v>34926</v>
       </c>
-      <c r="B201" s="0" t="n">
+      <c r="B202" s="0" t="n">
         <v>69.524</v>
       </c>
-      <c r="C201" s="0" t="n">
+      <c r="C202" s="0" t="n">
         <v>77.53</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="n">
         <v>34957</v>
       </c>
-      <c r="B202" s="0" t="n">
+      <c r="B203" s="0" t="n">
         <v>69.737</v>
       </c>
-      <c r="C202" s="0" t="n">
+      <c r="C203" s="0" t="n">
         <v>77.666</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="n">
         <v>34987</v>
       </c>
-      <c r="B203" s="0" t="n">
+      <c r="B204" s="0" t="n">
         <v>69.952</v>
       </c>
-      <c r="C203" s="0" t="n">
+      <c r="C204" s="0" t="n">
         <v>77.803</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="n">
         <v>35018</v>
       </c>
-      <c r="B204" s="0" t="n">
+      <c r="B205" s="0" t="n">
         <v>70.169</v>
       </c>
-      <c r="C204" s="0" t="n">
+      <c r="C205" s="0" t="n">
         <v>77.942</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="n">
         <v>35048</v>
       </c>
-      <c r="B205" s="0" t="n">
+      <c r="B206" s="0" t="n">
         <v>70.388</v>
       </c>
-      <c r="C205" s="0" t="n">
+      <c r="C206" s="0" t="n">
         <v>78.084</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="n">
         <v>35079</v>
       </c>
-      <c r="B206" s="0" t="n">
+      <c r="B207" s="0" t="n">
         <v>70.61</v>
       </c>
-      <c r="C206" s="0" t="n">
+      <c r="C207" s="0" t="n">
         <v>78.226</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="n">
         <v>35110</v>
       </c>
-      <c r="B207" s="0" t="n">
+      <c r="B208" s="0" t="n">
         <v>70.833</v>
       </c>
-      <c r="C207" s="0" t="n">
+      <c r="C208" s="0" t="n">
         <v>78.371</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="n">
         <v>35139</v>
       </c>
-      <c r="B208" s="0" t="n">
+      <c r="B209" s="0" t="n">
         <v>71.058</v>
       </c>
-      <c r="C208" s="0" t="n">
+      <c r="C209" s="0" t="n">
         <v>78.518</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="n">
         <v>35170</v>
       </c>
-      <c r="B209" s="0" t="n">
+      <c r="B210" s="0" t="n">
         <v>71.285</v>
       </c>
-      <c r="C209" s="0" t="n">
+      <c r="C210" s="0" t="n">
         <v>78.667</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="n">
         <v>35200</v>
       </c>
-      <c r="B210" s="0" t="n">
+      <c r="B211" s="0" t="n">
         <v>71.515</v>
       </c>
-      <c r="C210" s="0" t="n">
+      <c r="C211" s="0" t="n">
         <v>78.818</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="n">
         <v>35231</v>
       </c>
-      <c r="B211" s="0" t="n">
+      <c r="B212" s="0" t="n">
         <v>71.746</v>
       </c>
-      <c r="C211" s="0" t="n">
+      <c r="C212" s="0" t="n">
         <v>78.971</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="n">
         <v>35261</v>
       </c>
-      <c r="B212" s="0" t="n">
+      <c r="B213" s="0" t="n">
         <v>71.978</v>
       </c>
-      <c r="C212" s="0" t="n">
+      <c r="C213" s="0" t="n">
         <v>79.125</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="n">
         <v>35292</v>
       </c>
-      <c r="B213" s="0" t="n">
+      <c r="B214" s="0" t="n">
         <v>72.213</v>
       </c>
-      <c r="C213" s="0" t="n">
+      <c r="C214" s="0" t="n">
         <v>79.282</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="n">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="n">
         <v>35323</v>
       </c>
-      <c r="B214" s="0" t="n">
+      <c r="B215" s="0" t="n">
         <v>72.449</v>
       </c>
-      <c r="C214" s="0" t="n">
+      <c r="C215" s="0" t="n">
         <v>79.44</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="n">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="n">
         <v>35353</v>
       </c>
-      <c r="B215" s="0" t="n">
+      <c r="B216" s="0" t="n">
         <v>72.687</v>
       </c>
-      <c r="C215" s="0" t="n">
+      <c r="C216" s="0" t="n">
         <v>79.6</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="n">
         <v>35384</v>
       </c>
-      <c r="B216" s="0" t="n">
+      <c r="B217" s="0" t="n">
         <v>72.927</v>
       </c>
-      <c r="C216" s="0" t="n">
+      <c r="C217" s="0" t="n">
         <v>79.762</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="n">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="n">
         <v>35414</v>
       </c>
-      <c r="B217" s="0" t="n">
+      <c r="B218" s="0" t="n">
         <v>73.168</v>
       </c>
-      <c r="C217" s="0" t="n">
+      <c r="C218" s="0" t="n">
         <v>79.926</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="n">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="n">
         <v>35445</v>
       </c>
-      <c r="B218" s="0" t="n">
+      <c r="B219" s="0" t="n">
         <v>73.41</v>
       </c>
-      <c r="C218" s="0" t="n">
+      <c r="C219" s="0" t="n">
         <v>80.091</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="n">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="n">
         <v>35476</v>
       </c>
-      <c r="B219" s="0" t="n">
+      <c r="B220" s="0" t="n">
         <v>73.654</v>
       </c>
-      <c r="C219" s="0" t="n">
+      <c r="C220" s="0" t="n">
         <v>80.259</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="n">
         <v>35504</v>
       </c>
-      <c r="B220" s="0" t="n">
+      <c r="B221" s="0" t="n">
         <v>73.899</v>
       </c>
-      <c r="C220" s="0" t="n">
+      <c r="C221" s="0" t="n">
         <v>80.428</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="n">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="n">
         <v>35535</v>
       </c>
-      <c r="B221" s="0" t="n">
+      <c r="B222" s="0" t="n">
         <v>74.145</v>
       </c>
-      <c r="C221" s="0" t="n">
+      <c r="C222" s="0" t="n">
         <v>80.599</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="n">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="n">
         <v>35565</v>
       </c>
-      <c r="B222" s="0" t="n">
+      <c r="B223" s="0" t="n">
         <v>74.393</v>
       </c>
-      <c r="C222" s="0" t="n">
+      <c r="C223" s="0" t="n">
         <v>80.771</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="n">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="n">
         <v>35596</v>
       </c>
-      <c r="B223" s="0" t="n">
+      <c r="B224" s="0" t="n">
         <v>74.641</v>
       </c>
-      <c r="C223" s="0" t="n">
+      <c r="C224" s="0" t="n">
         <v>80.946</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="n">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="n">
         <v>35626</v>
       </c>
-      <c r="B224" s="0" t="n">
+      <c r="B225" s="0" t="n">
         <v>74.89</v>
       </c>
-      <c r="C224" s="0" t="n">
+      <c r="C225" s="0" t="n">
         <v>81.122</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="n">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="n">
         <v>35657</v>
       </c>
-      <c r="B225" s="0" t="n">
+      <c r="B226" s="0" t="n">
         <v>75.14</v>
       </c>
-      <c r="C225" s="0" t="n">
+      <c r="C226" s="0" t="n">
         <v>81.299</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="n">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="n">
         <v>35688</v>
       </c>
-      <c r="B226" s="0" t="n">
+      <c r="B227" s="0" t="n">
         <v>75.391</v>
       </c>
-      <c r="C226" s="0" t="n">
+      <c r="C227" s="0" t="n">
         <v>81.478</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="n">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="n">
         <v>35718</v>
       </c>
-      <c r="B227" s="0" t="n">
+      <c r="B228" s="0" t="n">
         <v>75.643</v>
       </c>
-      <c r="C227" s="0" t="n">
+      <c r="C228" s="0" t="n">
         <v>81.658</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="n">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="n">
         <v>35749</v>
       </c>
-      <c r="B228" s="0" t="n">
+      <c r="B229" s="0" t="n">
         <v>75.895</v>
       </c>
-      <c r="C228" s="0" t="n">
+      <c r="C229" s="0" t="n">
         <v>81.839</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="n">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="n">
         <v>35779</v>
       </c>
-      <c r="B229" s="0" t="n">
+      <c r="B230" s="0" t="n">
         <v>76.148</v>
       </c>
-      <c r="C229" s="0" t="n">
+      <c r="C230" s="0" t="n">
         <v>82.022</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="n">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="n">
         <v>35810</v>
       </c>
-      <c r="B230" s="0" t="n">
+      <c r="B231" s="0" t="n">
         <v>76.4</v>
       </c>
-      <c r="C230" s="0" t="n">
+      <c r="C231" s="0" t="n">
         <v>82.206</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="n">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="n">
         <v>35841</v>
       </c>
-      <c r="B231" s="0" t="n">
+      <c r="B232" s="0" t="n">
         <v>76.654</v>
       </c>
-      <c r="C231" s="0" t="n">
+      <c r="C232" s="0" t="n">
         <v>82.391</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="n">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="n">
         <v>35869</v>
       </c>
-      <c r="B232" s="0" t="n">
+      <c r="B233" s="0" t="n">
         <v>76.907</v>
       </c>
-      <c r="C232" s="0" t="n">
+      <c r="C233" s="0" t="n">
         <v>82.577</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="n">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="n">
         <v>35900</v>
       </c>
-      <c r="B233" s="0" t="n">
+      <c r="B234" s="0" t="n">
         <v>77.16</v>
       </c>
-      <c r="C233" s="0" t="n">
+      <c r="C234" s="0" t="n">
         <v>82.764</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="n">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="n">
         <v>35930</v>
       </c>
-      <c r="B234" s="0" t="n">
+      <c r="B235" s="0" t="n">
         <v>77.414</v>
       </c>
-      <c r="C234" s="0" t="n">
+      <c r="C235" s="0" t="n">
         <v>82.953</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="n">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="n">
         <v>35961</v>
       </c>
-      <c r="B235" s="0" t="n">
+      <c r="B236" s="0" t="n">
         <v>77.667</v>
       </c>
-      <c r="C235" s="0" t="n">
+      <c r="C236" s="0" t="n">
         <v>83.142</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="n">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="n">
         <v>35991</v>
       </c>
-      <c r="B236" s="0" t="n">
+      <c r="B237" s="0" t="n">
         <v>77.92</v>
       </c>
-      <c r="C236" s="0" t="n">
+      <c r="C237" s="0" t="n">
         <v>83.332</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="n">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="n">
         <v>36022</v>
       </c>
-      <c r="B237" s="0" t="n">
+      <c r="B238" s="0" t="n">
         <v>78.173</v>
       </c>
-      <c r="C237" s="0" t="n">
+      <c r="C238" s="0" t="n">
         <v>83.522</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="n">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="n">
         <v>36053</v>
       </c>
-      <c r="B238" s="0" t="n">
+      <c r="B239" s="0" t="n">
         <v>78.425</v>
       </c>
-      <c r="C238" s="0" t="n">
+      <c r="C239" s="0" t="n">
         <v>83.714</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="n">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="n">
         <v>36083</v>
       </c>
-      <c r="B239" s="0" t="n">
+      <c r="B240" s="0" t="n">
         <v>78.676</v>
       </c>
-      <c r="C239" s="0" t="n">
+      <c r="C240" s="0" t="n">
         <v>83.906</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="n">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="n">
         <v>36114</v>
       </c>
-      <c r="B240" s="0" t="n">
+      <c r="B241" s="0" t="n">
         <v>78.927</v>
       </c>
-      <c r="C240" s="0" t="n">
+      <c r="C241" s="0" t="n">
         <v>84.098</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="n">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="n">
         <v>36144</v>
       </c>
-      <c r="B241" s="0" t="n">
+      <c r="B242" s="0" t="n">
         <v>79.177</v>
       </c>
-      <c r="C241" s="0" t="n">
+      <c r="C242" s="0" t="n">
         <v>84.291</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="n">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="n">
         <v>36175</v>
       </c>
-      <c r="B242" s="0" t="n">
+      <c r="B243" s="0" t="n">
         <v>79.426</v>
       </c>
-      <c r="C242" s="0" t="n">
+      <c r="C243" s="0" t="n">
         <v>84.484</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="n">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="n">
         <v>36206</v>
       </c>
-      <c r="B243" s="0" t="n">
+      <c r="B244" s="0" t="n">
         <v>79.674</v>
       </c>
-      <c r="C243" s="0" t="n">
+      <c r="C244" s="0" t="n">
         <v>84.678</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="n">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="n">
         <v>36234</v>
       </c>
-      <c r="B244" s="0" t="n">
+      <c r="B245" s="0" t="n">
         <v>79.921</v>
       </c>
-      <c r="C244" s="0" t="n">
+      <c r="C245" s="0" t="n">
         <v>84.872</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="n">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="n">
         <v>36265</v>
       </c>
-      <c r="B245" s="0" t="n">
+      <c r="B246" s="0" t="n">
         <v>80.167</v>
       </c>
-      <c r="C245" s="0" t="n">
+      <c r="C246" s="0" t="n">
         <v>85.066</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="n">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="n">
         <v>36295</v>
       </c>
-      <c r="B246" s="0" t="n">
+      <c r="B247" s="0" t="n">
         <v>80.411</v>
       </c>
-      <c r="C246" s="0" t="n">
+      <c r="C247" s="0" t="n">
         <v>85.26</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="n">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="n">
         <v>36326</v>
       </c>
-      <c r="B247" s="0" t="n">
+      <c r="B248" s="0" t="n">
         <v>80.654</v>
       </c>
-      <c r="C247" s="0" t="n">
+      <c r="C248" s="0" t="n">
         <v>85.454</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="n">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="n">
         <v>36356</v>
       </c>
-      <c r="B248" s="0" t="n">
+      <c r="B249" s="0" t="n">
         <v>80.895</v>
       </c>
-      <c r="C248" s="0" t="n">
+      <c r="C249" s="0" t="n">
         <v>85.647</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="n">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="n">
         <v>36387</v>
       </c>
-      <c r="B249" s="0" t="n">
+      <c r="B250" s="0" t="n">
         <v>81.135</v>
       </c>
-      <c r="C249" s="0" t="n">
+      <c r="C250" s="0" t="n">
         <v>85.841</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="n">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="n">
         <v>36418</v>
       </c>
-      <c r="B250" s="0" t="n">
+      <c r="B251" s="0" t="n">
         <v>81.374</v>
       </c>
-      <c r="C250" s="0" t="n">
+      <c r="C251" s="0" t="n">
         <v>86.033</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="n">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="n">
         <v>36448</v>
       </c>
-      <c r="B251" s="0" t="n">
+      <c r="B252" s="0" t="n">
         <v>81.61</v>
       </c>
-      <c r="C251" s="0" t="n">
+      <c r="C252" s="0" t="n">
         <v>86.226</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="n">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="n">
         <v>36479</v>
       </c>
-      <c r="B252" s="0" t="n">
+      <c r="B253" s="0" t="n">
         <v>81.845</v>
       </c>
-      <c r="C252" s="0" t="n">
+      <c r="C253" s="0" t="n">
         <v>86.417</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="n">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="n">
         <v>36509</v>
       </c>
-      <c r="B253" s="0" t="n">
+      <c r="B254" s="0" t="n">
         <v>82.078</v>
       </c>
-      <c r="C253" s="0" t="n">
+      <c r="C254" s="0" t="n">
         <v>86.608</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="n">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="n">
         <v>36540</v>
       </c>
-      <c r="B254" s="0" t="n">
+      <c r="B255" s="0" t="n">
         <v>82.31</v>
       </c>
-      <c r="C254" s="0" t="n">
+      <c r="C255" s="0" t="n">
         <v>86.798</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="n">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="n">
         <v>36571</v>
       </c>
-      <c r="B255" s="0" t="n">
+      <c r="B256" s="0" t="n">
         <v>82.539</v>
       </c>
-      <c r="C255" s="0" t="n">
+      <c r="C256" s="0" t="n">
         <v>86.987</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="n">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="n">
         <v>36600</v>
       </c>
-      <c r="B256" s="0" t="n">
+      <c r="B257" s="0" t="n">
         <v>82.766</v>
       </c>
-      <c r="C256" s="0" t="n">
+      <c r="C257" s="0" t="n">
         <v>87.175</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="n">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="n">
         <v>36631</v>
       </c>
-      <c r="B257" s="0" t="n">
+      <c r="B258" s="0" t="n">
         <v>82.992</v>
       </c>
-      <c r="C257" s="0" t="n">
+      <c r="C258" s="0" t="n">
         <v>87.361</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="n">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="n">
         <v>36661</v>
       </c>
-      <c r="B258" s="0" t="n">
+      <c r="B259" s="0" t="n">
         <v>83.215</v>
       </c>
-      <c r="C258" s="0" t="n">
+      <c r="C259" s="0" t="n">
         <v>87.547</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="n">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="n">
         <v>36692</v>
       </c>
-      <c r="B259" s="0" t="n">
+      <c r="B260" s="0" t="n">
         <v>83.437</v>
       </c>
-      <c r="C259" s="0" t="n">
+      <c r="C260" s="0" t="n">
         <v>87.731</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="n">
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="n">
         <v>36722</v>
       </c>
-      <c r="B260" s="0" t="n">
+      <c r="B261" s="0" t="n">
         <v>83.657</v>
       </c>
-      <c r="C260" s="0" t="n">
+      <c r="C261" s="0" t="n">
         <v>87.914</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="n">
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="n">
         <v>36753</v>
       </c>
-      <c r="B261" s="0" t="n">
+      <c r="B262" s="0" t="n">
         <v>83.875</v>
       </c>
-      <c r="C261" s="0" t="n">
+      <c r="C262" s="0" t="n">
         <v>88.095</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="n">
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="n">
         <v>36784</v>
       </c>
-      <c r="B262" s="0" t="n">
+      <c r="B263" s="0" t="n">
         <v>84.091</v>
       </c>
-      <c r="C262" s="0" t="n">
+      <c r="C263" s="0" t="n">
         <v>88.274</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="n">
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="n">
         <v>36814</v>
       </c>
-      <c r="B263" s="0" t="n">
+      <c r="B264" s="0" t="n">
         <v>84.305</v>
       </c>
-      <c r="C263" s="0" t="n">
+      <c r="C264" s="0" t="n">
         <v>88.452</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="n">
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="n">
         <v>36845</v>
       </c>
-      <c r="B264" s="0" t="n">
+      <c r="B265" s="0" t="n">
         <v>84.518</v>
       </c>
-      <c r="C264" s="0" t="n">
+      <c r="C265" s="0" t="n">
         <v>88.628</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="n">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="n">
         <v>36875</v>
       </c>
-      <c r="B265" s="0" t="n">
+      <c r="B266" s="0" t="n">
         <v>84.729</v>
       </c>
-      <c r="C265" s="0" t="n">
+      <c r="C266" s="0" t="n">
         <v>88.803</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="n">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="n">
         <v>36906</v>
       </c>
-      <c r="B266" s="0" t="n">
+      <c r="B267" s="0" t="n">
         <v>84.938</v>
       </c>
-      <c r="C266" s="0" t="n">
+      <c r="C267" s="0" t="n">
         <v>88.976</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="n">
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="n">
         <v>36937</v>
       </c>
-      <c r="B267" s="0" t="n">
+      <c r="B268" s="0" t="n">
         <v>85.146</v>
       </c>
-      <c r="C267" s="0" t="n">
+      <c r="C268" s="0" t="n">
         <v>89.147</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="n">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="n">
         <v>36965</v>
       </c>
-      <c r="B268" s="0" t="n">
+      <c r="B269" s="0" t="n">
         <v>85.353</v>
       </c>
-      <c r="C268" s="0" t="n">
+      <c r="C269" s="0" t="n">
         <v>89.316</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="n">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="n">
         <v>36996</v>
       </c>
-      <c r="B269" s="0" t="n">
+      <c r="B270" s="0" t="n">
         <v>85.559</v>
       </c>
-      <c r="C269" s="0" t="n">
+      <c r="C270" s="0" t="n">
         <v>89.483</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="n">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="n">
         <v>37026</v>
       </c>
-      <c r="B270" s="0" t="n">
+      <c r="B271" s="0" t="n">
         <v>85.763</v>
       </c>
-      <c r="C270" s="0" t="n">
+      <c r="C271" s="0" t="n">
         <v>89.649</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="n">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="n">
         <v>37057</v>
       </c>
-      <c r="B271" s="0" t="n">
+      <c r="B272" s="0" t="n">
         <v>85.967</v>
       </c>
-      <c r="C271" s="0" t="n">
+      <c r="C272" s="0" t="n">
         <v>89.813</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="n">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="n">
         <v>37087</v>
       </c>
-      <c r="B272" s="0" t="n">
+      <c r="B273" s="0" t="n">
         <v>86.169</v>
       </c>
-      <c r="C272" s="0" t="n">
+      <c r="C273" s="0" t="n">
         <v>89.976</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="n">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="n">
         <v>37118</v>
       </c>
-      <c r="B273" s="0" t="n">
+      <c r="B274" s="0" t="n">
         <v>86.371</v>
       </c>
-      <c r="C273" s="0" t="n">
+      <c r="C274" s="0" t="n">
         <v>90.137</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="n">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="n">
         <v>37149</v>
       </c>
-      <c r="B274" s="0" t="n">
+      <c r="B275" s="0" t="n">
         <v>86.573</v>
       </c>
-      <c r="C274" s="0" t="n">
+      <c r="C275" s="0" t="n">
         <v>90.296</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="n">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="n">
         <v>37179</v>
       </c>
-      <c r="B275" s="0" t="n">
+      <c r="B276" s="0" t="n">
         <v>86.774</v>
       </c>
-      <c r="C275" s="0" t="n">
+      <c r="C276" s="0" t="n">
         <v>90.454</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="n">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="n">
         <v>37210</v>
       </c>
-      <c r="B276" s="0" t="n">
+      <c r="B277" s="0" t="n">
         <v>86.974</v>
       </c>
-      <c r="C276" s="0" t="n">
+      <c r="C277" s="0" t="n">
         <v>90.61</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="n">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="n">
         <v>37240</v>
       </c>
-      <c r="B277" s="0" t="n">
+      <c r="B278" s="0" t="n">
         <v>87.175</v>
       </c>
-      <c r="C277" s="0" t="n">
+      <c r="C278" s="0" t="n">
         <v>90.766</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="n">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="n">
         <v>37271</v>
       </c>
-      <c r="B278" s="0" t="n">
+      <c r="B279" s="0" t="n">
         <v>87.375</v>
       </c>
-      <c r="C278" s="0" t="n">
+      <c r="C279" s="0" t="n">
         <v>90.92</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="n">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="n">
         <v>37302</v>
       </c>
-      <c r="B279" s="0" t="n">
+      <c r="B280" s="0" t="n">
         <v>87.575</v>
       </c>
-      <c r="C279" s="0" t="n">
+      <c r="C280" s="0" t="n">
         <v>91.072</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="n">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="n">
         <v>37330</v>
       </c>
-      <c r="B280" s="0" t="n">
+      <c r="B281" s="0" t="n">
         <v>87.775</v>
       </c>
-      <c r="C280" s="0" t="n">
+      <c r="C281" s="0" t="n">
         <v>91.224</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="n">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="n">
         <v>37361</v>
       </c>
-      <c r="B281" s="0" t="n">
+      <c r="B282" s="0" t="n">
         <v>87.975</v>
       </c>
-      <c r="C281" s="0" t="n">
+      <c r="C282" s="0" t="n">
         <v>91.374</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="n">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="n">
         <v>37391</v>
       </c>
-      <c r="B282" s="0" t="n">
+      <c r="B283" s="0" t="n">
         <v>88.175</v>
       </c>
-      <c r="C282" s="0" t="n">
+      <c r="C283" s="0" t="n">
         <v>91.524</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="n">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="n">
         <v>37422</v>
       </c>
-      <c r="B283" s="0" t="n">
+      <c r="B284" s="0" t="n">
         <v>88.376</v>
       </c>
-      <c r="C283" s="0" t="n">
+      <c r="C284" s="0" t="n">
         <v>91.672</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="n">
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="n">
         <v>37452</v>
       </c>
-      <c r="B284" s="0" t="n">
+      <c r="B285" s="0" t="n">
         <v>88.577</v>
       </c>
-      <c r="C284" s="0" t="n">
+      <c r="C285" s="0" t="n">
         <v>91.82</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="n">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="n">
         <v>37483</v>
       </c>
-      <c r="B285" s="0" t="n">
+      <c r="B286" s="0" t="n">
         <v>88.778</v>
       </c>
-      <c r="C285" s="0" t="n">
+      <c r="C286" s="0" t="n">
         <v>91.968</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="n">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="n">
         <v>37514</v>
       </c>
-      <c r="B286" s="0" t="n">
+      <c r="B287" s="0" t="n">
         <v>88.98</v>
       </c>
-      <c r="C286" s="0" t="n">
+      <c r="C287" s="0" t="n">
         <v>92.114</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="n">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="n">
         <v>37544</v>
       </c>
-      <c r="B287" s="0" t="n">
+      <c r="B288" s="0" t="n">
         <v>89.182</v>
       </c>
-      <c r="C287" s="0" t="n">
+      <c r="C288" s="0" t="n">
         <v>92.261</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="n">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="n">
         <v>37575</v>
       </c>
-      <c r="B288" s="0" t="n">
+      <c r="B289" s="0" t="n">
         <v>89.384</v>
       </c>
-      <c r="C288" s="0" t="n">
+      <c r="C289" s="0" t="n">
         <v>92.406</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="n">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="n">
         <v>37605</v>
       </c>
-      <c r="B289" s="0" t="n">
+      <c r="B290" s="0" t="n">
         <v>89.587</v>
       </c>
-      <c r="C289" s="0" t="n">
+      <c r="C290" s="0" t="n">
         <v>92.552</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="n">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="n">
         <v>37636</v>
       </c>
-      <c r="B290" s="0" t="n">
+      <c r="B291" s="0" t="n">
         <v>89.791</v>
       </c>
-      <c r="C290" s="0" t="n">
+      <c r="C291" s="0" t="n">
         <v>92.697</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="n">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="n">
         <v>37667</v>
       </c>
-      <c r="B291" s="0" t="n">
+      <c r="B292" s="0" t="n">
         <v>89.995</v>
       </c>
-      <c r="C291" s="0" t="n">
+      <c r="C292" s="0" t="n">
         <v>92.843</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="n">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="n">
         <v>37695</v>
       </c>
-      <c r="B292" s="0" t="n">
+      <c r="B293" s="0" t="n">
         <v>90.199</v>
       </c>
-      <c r="C292" s="0" t="n">
+      <c r="C293" s="0" t="n">
         <v>92.988</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="n">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="n">
         <v>37726</v>
       </c>
-      <c r="B293" s="0" t="n">
+      <c r="B294" s="0" t="n">
         <v>90.404</v>
       </c>
-      <c r="C293" s="0" t="n">
+      <c r="C294" s="0" t="n">
         <v>93.133</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="n">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="n">
         <v>37756</v>
       </c>
-      <c r="B294" s="0" t="n">
+      <c r="B295" s="0" t="n">
         <v>90.609</v>
       </c>
-      <c r="C294" s="0" t="n">
+      <c r="C295" s="0" t="n">
         <v>93.279</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="n">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="n">
         <v>37787</v>
       </c>
-      <c r="B295" s="0" t="n">
+      <c r="B296" s="0" t="n">
         <v>90.815</v>
       </c>
-      <c r="C295" s="0" t="n">
+      <c r="C296" s="0" t="n">
         <v>93.424</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="n">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="n">
         <v>37817</v>
       </c>
-      <c r="B296" s="0" t="n">
+      <c r="B297" s="0" t="n">
         <v>91.02</v>
       </c>
-      <c r="C296" s="0" t="n">
+      <c r="C297" s="0" t="n">
         <v>93.57</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="n">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="n">
         <v>37848</v>
       </c>
-      <c r="B297" s="0" t="n">
+      <c r="B298" s="0" t="n">
         <v>91.226</v>
       </c>
-      <c r="C297" s="0" t="n">
+      <c r="C298" s="0" t="n">
         <v>93.716</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="n">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="n">
         <v>37879</v>
       </c>
-      <c r="B298" s="0" t="n">
+      <c r="B299" s="0" t="n">
         <v>91.432</v>
       </c>
-      <c r="C298" s="0" t="n">
+      <c r="C299" s="0" t="n">
         <v>93.863</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="n">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="n">
         <v>37909</v>
       </c>
-      <c r="B299" s="0" t="n">
+      <c r="B300" s="0" t="n">
         <v>91.638</v>
       </c>
-      <c r="C299" s="0" t="n">
+      <c r="C300" s="0" t="n">
         <v>94.01</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1" t="n">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="n">
         <v>37940</v>
       </c>
-      <c r="B300" s="0" t="n">
+      <c r="B301" s="0" t="n">
         <v>91.844</v>
       </c>
-      <c r="C300" s="0" t="n">
+      <c r="C301" s="0" t="n">
         <v>94.157</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="n">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="n">
         <v>37970</v>
       </c>
-      <c r="B301" s="0" t="n">
+      <c r="B302" s="0" t="n">
         <v>92.049</v>
       </c>
-      <c r="C301" s="0" t="n">
+      <c r="C302" s="0" t="n">
         <v>94.304</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1" t="n">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="n">
         <v>38001</v>
       </c>
-      <c r="B302" s="0" t="n">
+      <c r="B303" s="0" t="n">
         <v>92.254</v>
       </c>
-      <c r="C302" s="0" t="n">
+      <c r="C303" s="0" t="n">
         <v>94.452</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="n">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="n">
         <v>38032</v>
       </c>
-      <c r="B303" s="0" t="n">
+      <c r="B304" s="0" t="n">
         <v>92.459</v>
       </c>
-      <c r="C303" s="0" t="n">
+      <c r="C304" s="0" t="n">
         <v>94.601</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="1" t="n">
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="n">
         <v>38061</v>
       </c>
-      <c r="B304" s="0" t="n">
+      <c r="B305" s="0" t="n">
         <v>92.662</v>
       </c>
-      <c r="C304" s="0" t="n">
+      <c r="C305" s="0" t="n">
         <v>94.749</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="1" t="n">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="n">
         <v>38092</v>
       </c>
-      <c r="B305" s="0" t="n">
+      <c r="B306" s="0" t="n">
         <v>92.865</v>
       </c>
-      <c r="C305" s="0" t="n">
+      <c r="C306" s="0" t="n">
         <v>94.899</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1" t="n">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="n">
         <v>38122</v>
       </c>
-      <c r="B306" s="0" t="n">
+      <c r="B307" s="0" t="n">
         <v>93.067</v>
       </c>
-      <c r="C306" s="0" t="n">
+      <c r="C307" s="0" t="n">
         <v>95.048</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1" t="n">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="n">
         <v>38153</v>
       </c>
-      <c r="B307" s="0" t="n">
+      <c r="B308" s="0" t="n">
         <v>93.268</v>
       </c>
-      <c r="C307" s="0" t="n">
+      <c r="C308" s="0" t="n">
         <v>95.198</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="n">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="n">
         <v>38183</v>
       </c>
-      <c r="B308" s="0" t="n">
+      <c r="B309" s="0" t="n">
         <v>93.468</v>
       </c>
-      <c r="C308" s="0" t="n">
+      <c r="C309" s="0" t="n">
         <v>95.348</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="1" t="n">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="n">
         <v>38214</v>
       </c>
-      <c r="B309" s="0" t="n">
+      <c r="B310" s="0" t="n">
         <v>93.667</v>
       </c>
-      <c r="C309" s="0" t="n">
+      <c r="C310" s="0" t="n">
         <v>95.498</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1" t="n">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="n">
         <v>38245</v>
       </c>
-      <c r="B310" s="0" t="n">
+      <c r="B311" s="0" t="n">
         <v>93.864</v>
       </c>
-      <c r="C310" s="0" t="n">
+      <c r="C311" s="0" t="n">
         <v>95.648</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="1" t="n">
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="2" t="n">
         <v>38275</v>
       </c>
-      <c r="B311" s="0" t="n">
+      <c r="B312" s="0" t="n">
         <v>94.059</v>
       </c>
-      <c r="C311" s="0" t="n">
+      <c r="C312" s="0" t="n">
         <v>95.799</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="1" t="n">
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="n">
         <v>38306</v>
       </c>
-      <c r="B312" s="0" t="n">
+      <c r="B313" s="0" t="n">
         <v>94.253</v>
       </c>
-      <c r="C312" s="0" t="n">
+      <c r="C313" s="0" t="n">
         <v>95.949</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="1" t="n">
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="n">
         <v>38336</v>
       </c>
-      <c r="B313" s="0" t="n">
+      <c r="B314" s="0" t="n">
         <v>94.444</v>
       </c>
-      <c r="C313" s="0" t="n">
+      <c r="C314" s="0" t="n">
         <v>96.1</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="1" t="n">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="n">
         <v>38367</v>
       </c>
-      <c r="B314" s="0" t="n">
+      <c r="B315" s="0" t="n">
         <v>94.634</v>
       </c>
-      <c r="C314" s="0" t="n">
+      <c r="C315" s="0" t="n">
         <v>96.25</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="1" t="n">
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="2" t="n">
         <v>38398</v>
       </c>
-      <c r="B315" s="0" t="n">
+      <c r="B316" s="0" t="n">
         <v>94.821</v>
       </c>
-      <c r="C315" s="0" t="n">
+      <c r="C316" s="0" t="n">
         <v>96.4</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="1" t="n">
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="n">
         <v>38426</v>
       </c>
-      <c r="B316" s="0" t="n">
+      <c r="B317" s="0" t="n">
         <v>95.006</v>
       </c>
-      <c r="C316" s="0" t="n">
+      <c r="C317" s="0" t="n">
         <v>96.55</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="1" t="n">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="n">
         <v>38457</v>
       </c>
-      <c r="B317" s="0" t="n">
+      <c r="B318" s="0" t="n">
         <v>95.188</v>
       </c>
-      <c r="C317" s="0" t="n">
+      <c r="C318" s="0" t="n">
         <v>96.699</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="1" t="n">
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="2" t="n">
         <v>38487</v>
       </c>
-      <c r="B318" s="0" t="n">
+      <c r="B319" s="0" t="n">
         <v>95.368</v>
       </c>
-      <c r="C318" s="0" t="n">
+      <c r="C319" s="0" t="n">
         <v>96.848</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="1" t="n">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="n">
         <v>38518</v>
       </c>
-      <c r="B319" s="0" t="n">
+      <c r="B320" s="0" t="n">
         <v>95.545</v>
       </c>
-      <c r="C319" s="0" t="n">
+      <c r="C320" s="0" t="n">
         <v>96.996</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="1" t="n">
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="2" t="n">
         <v>38548</v>
       </c>
-      <c r="B320" s="0" t="n">
+      <c r="B321" s="0" t="n">
         <v>95.719</v>
       </c>
-      <c r="C320" s="0" t="n">
+      <c r="C321" s="0" t="n">
         <v>97.143</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="1" t="n">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="n">
         <v>38579</v>
       </c>
-      <c r="B321" s="0" t="n">
+      <c r="B322" s="0" t="n">
         <v>95.89</v>
       </c>
-      <c r="C321" s="0" t="n">
+      <c r="C322" s="0" t="n">
         <v>97.289</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="1" t="n">
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="n">
         <v>38610</v>
       </c>
-      <c r="B322" s="0" t="n">
+      <c r="B323" s="0" t="n">
         <v>96.057</v>
       </c>
-      <c r="C322" s="0" t="n">
+      <c r="C323" s="0" t="n">
         <v>97.434</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="1" t="n">
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="2" t="n">
         <v>38640</v>
       </c>
-      <c r="B323" s="0" t="n">
+      <c r="B324" s="0" t="n">
         <v>96.222</v>
       </c>
-      <c r="C323" s="0" t="n">
+      <c r="C324" s="0" t="n">
         <v>97.578</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="1" t="n">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="n">
         <v>38671</v>
       </c>
-      <c r="B324" s="0" t="n">
+      <c r="B325" s="0" t="n">
         <v>96.382</v>
       </c>
-      <c r="C324" s="0" t="n">
+      <c r="C325" s="0" t="n">
         <v>97.721</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="1" t="n">
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="n">
         <v>38701</v>
       </c>
-      <c r="B325" s="0" t="n">
+      <c r="B326" s="0" t="n">
         <v>96.54</v>
       </c>
-      <c r="C325" s="0" t="n">
+      <c r="C326" s="0" t="n">
         <v>97.862</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="1" t="n">
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2" t="n">
         <v>38732</v>
       </c>
-      <c r="B326" s="0" t="n">
+      <c r="B327" s="0" t="n">
         <v>96.693</v>
       </c>
-      <c r="C326" s="0" t="n">
+      <c r="C327" s="0" t="n">
         <v>98.001</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="1" t="n">
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="n">
         <v>38763</v>
       </c>
-      <c r="B327" s="0" t="n">
+      <c r="B328" s="0" t="n">
         <v>96.843</v>
       </c>
-      <c r="C327" s="0" t="n">
+      <c r="C328" s="0" t="n">
         <v>98.138</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="1" t="n">
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="n">
         <v>38791</v>
       </c>
-      <c r="B328" s="0" t="n">
+      <c r="B329" s="0" t="n">
         <v>96.989</v>
       </c>
-      <c r="C328" s="0" t="n">
+      <c r="C329" s="0" t="n">
         <v>98.273</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="1" t="n">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="n">
         <v>38822</v>
       </c>
-      <c r="B329" s="0" t="n">
+      <c r="B330" s="0" t="n">
         <v>97.131</v>
       </c>
-      <c r="C329" s="0" t="n">
+      <c r="C330" s="0" t="n">
         <v>98.406</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="1" t="n">
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="n">
         <v>38852</v>
       </c>
-      <c r="B330" s="0" t="n">
+      <c r="B331" s="0" t="n">
         <v>97.269</v>
       </c>
-      <c r="C330" s="0" t="n">
+      <c r="C331" s="0" t="n">
         <v>98.536</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="1" t="n">
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="n">
         <v>38883</v>
       </c>
-      <c r="B331" s="0" t="n">
+      <c r="B332" s="0" t="n">
         <v>97.403</v>
       </c>
-      <c r="C331" s="0" t="n">
+      <c r="C332" s="0" t="n">
         <v>98.664</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="1" t="n">
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="n">
         <v>38913</v>
       </c>
-      <c r="B332" s="0" t="n">
+      <c r="B333" s="0" t="n">
         <v>97.533</v>
       </c>
-      <c r="C332" s="0" t="n">
+      <c r="C333" s="0" t="n">
         <v>98.788</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1" t="n">
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="2" t="n">
         <v>38944</v>
       </c>
-      <c r="B333" s="0" t="n">
+      <c r="B334" s="0" t="n">
         <v>97.659</v>
       </c>
-      <c r="C333" s="0" t="n">
+      <c r="C334" s="0" t="n">
         <v>98.91</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="1" t="n">
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="2" t="n">
         <v>38975</v>
       </c>
-      <c r="B334" s="0" t="n">
+      <c r="B335" s="0" t="n">
         <v>97.78</v>
       </c>
-      <c r="C334" s="0" t="n">
+      <c r="C335" s="0" t="n">
         <v>99.028</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="1" t="n">
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="n">
         <v>39005</v>
       </c>
-      <c r="B335" s="0" t="n">
+      <c r="B336" s="0" t="n">
         <v>97.898</v>
       </c>
-      <c r="C335" s="0" t="n">
+      <c r="C336" s="0" t="n">
         <v>99.143</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="1" t="n">
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="n">
         <v>39036</v>
       </c>
-      <c r="B336" s="0" t="n">
+      <c r="B337" s="0" t="n">
         <v>98.011</v>
       </c>
-      <c r="C336" s="0" t="n">
+      <c r="C337" s="0" t="n">
         <v>99.254</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="1" t="n">
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="n">
         <v>39066</v>
       </c>
-      <c r="B337" s="0" t="n">
+      <c r="B338" s="0" t="n">
         <v>98.12</v>
       </c>
-      <c r="C337" s="0" t="n">
+      <c r="C338" s="0" t="n">
         <v>99.362</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1" t="n">
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="2" t="n">
         <v>39097</v>
       </c>
-      <c r="B338" s="0" t="n">
+      <c r="B339" s="0" t="n">
         <v>98.225</v>
       </c>
-      <c r="C338" s="0" t="n">
+      <c r="C339" s="0" t="n">
         <v>99.465</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="1" t="n">
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="2" t="n">
         <v>39128</v>
       </c>
-      <c r="B339" s="0" t="n">
+      <c r="B340" s="0" t="n">
         <v>98.326</v>
       </c>
-      <c r="C339" s="0" t="n">
+      <c r="C340" s="0" t="n">
         <v>99.565</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1" t="n">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="n">
         <v>39156</v>
       </c>
-      <c r="B340" s="0" t="n">
+      <c r="B341" s="0" t="n">
         <v>98.423</v>
       </c>
-      <c r="C340" s="0" t="n">
+      <c r="C341" s="0" t="n">
         <v>99.66</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="1" t="n">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="n">
         <v>39187</v>
       </c>
-      <c r="B341" s="0" t="n">
+      <c r="B342" s="0" t="n">
         <v>98.516</v>
       </c>
-      <c r="C341" s="0" t="n">
+      <c r="C342" s="0" t="n">
         <v>99.751</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="1" t="n">
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="2" t="n">
         <v>39217</v>
       </c>
-      <c r="B342" s="0" t="n">
+      <c r="B343" s="0" t="n">
         <v>98.605</v>
       </c>
-      <c r="C342" s="0" t="n">
+      <c r="C343" s="0" t="n">
         <v>99.838</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="1" t="n">
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="n">
         <v>39248</v>
       </c>
-      <c r="B343" s="0" t="n">
+      <c r="B344" s="0" t="n">
         <v>98.69</v>
       </c>
-      <c r="C343" s="0" t="n">
+      <c r="C344" s="0" t="n">
         <v>99.92</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="1" t="n">
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="n">
         <v>39278</v>
       </c>
-      <c r="B344" s="0" t="n">
+      <c r="B345" s="0" t="n">
         <v>98.771</v>
       </c>
-      <c r="C344" s="0" t="n">
+      <c r="C345" s="0" t="n">
         <v>99.998</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="1" t="n">
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="n">
         <v>39309</v>
       </c>
-      <c r="B345" s="0" t="n">
+      <c r="B346" s="0" t="n">
         <v>98.848</v>
       </c>
-      <c r="C345" s="0" t="n">
+      <c r="C346" s="0" t="n">
         <v>100.071</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="1" t="n">
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="2" t="n">
         <v>39340</v>
       </c>
-      <c r="B346" s="0" t="n">
+      <c r="B347" s="0" t="n">
         <v>98.922</v>
       </c>
-      <c r="C346" s="0" t="n">
+      <c r="C347" s="0" t="n">
         <v>100.139</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="1" t="n">
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="n">
         <v>39370</v>
       </c>
-      <c r="B347" s="0" t="n">
+      <c r="B348" s="0" t="n">
         <v>98.993</v>
       </c>
-      <c r="C347" s="0" t="n">
+      <c r="C348" s="0" t="n">
         <v>100.204</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="1" t="n">
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="n">
         <v>39401</v>
       </c>
-      <c r="B348" s="0" t="n">
+      <c r="B349" s="0" t="n">
         <v>99.06</v>
       </c>
-      <c r="C348" s="0" t="n">
+      <c r="C349" s="0" t="n">
         <v>100.263</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="1" t="n">
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="2" t="n">
         <v>39431</v>
       </c>
-      <c r="B349" s="0" t="n">
+      <c r="B350" s="0" t="n">
         <v>99.125</v>
       </c>
-      <c r="C349" s="0" t="n">
+      <c r="C350" s="0" t="n">
         <v>100.318</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="1" t="n">
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="2" t="n">
         <v>39462</v>
       </c>
-      <c r="B350" s="0" t="n">
+      <c r="B351" s="0" t="n">
         <v>99.186</v>
       </c>
-      <c r="C350" s="0" t="n">
+      <c r="C351" s="0" t="n">
         <v>100.369</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="1" t="n">
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="n">
         <v>39493</v>
       </c>
-      <c r="B351" s="0" t="n">
+      <c r="B352" s="0" t="n">
         <v>99.245</v>
       </c>
-      <c r="C351" s="0" t="n">
+      <c r="C352" s="0" t="n">
         <v>100.415</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1" t="n">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="n">
         <v>39522</v>
       </c>
-      <c r="B352" s="0" t="n">
+      <c r="B353" s="0" t="n">
         <v>99.301</v>
       </c>
-      <c r="C352" s="0" t="n">
+      <c r="C353" s="0" t="n">
         <v>100.457</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="1" t="n">
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="2" t="n">
         <v>39553</v>
       </c>
-      <c r="B353" s="0" t="n">
+      <c r="B354" s="0" t="n">
         <v>99.355</v>
       </c>
-      <c r="C353" s="0" t="n">
+      <c r="C354" s="0" t="n">
         <v>100.495</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="1" t="n">
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="2" t="n">
         <v>39583</v>
       </c>
-      <c r="B354" s="0" t="n">
+      <c r="B355" s="0" t="n">
         <v>99.407</v>
       </c>
-      <c r="C354" s="0" t="n">
+      <c r="C355" s="0" t="n">
         <v>100.529</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="1" t="n">
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="2" t="n">
         <v>39614</v>
       </c>
-      <c r="B355" s="0" t="n">
+      <c r="B356" s="0" t="n">
         <v>99.457</v>
       </c>
-      <c r="C355" s="0" t="n">
+      <c r="C356" s="0" t="n">
         <v>100.559</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="1" t="n">
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="n">
         <v>39644</v>
       </c>
-      <c r="B356" s="0" t="n">
+      <c r="B357" s="0" t="n">
         <v>99.506</v>
       </c>
-      <c r="C356" s="0" t="n">
+      <c r="C357" s="0" t="n">
         <v>100.586</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="1" t="n">
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="n">
         <v>39675</v>
       </c>
-      <c r="B357" s="0" t="n">
+      <c r="B358" s="0" t="n">
         <v>99.554</v>
       </c>
-      <c r="C357" s="0" t="n">
+      <c r="C358" s="0" t="n">
         <v>100.609</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="1" t="n">
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="n">
         <v>39706</v>
       </c>
-      <c r="B358" s="0" t="n">
+      <c r="B359" s="0" t="n">
         <v>99.601</v>
       </c>
-      <c r="C358" s="0" t="n">
+      <c r="C359" s="0" t="n">
         <v>100.629</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="1" t="n">
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="n">
         <v>39736</v>
       </c>
-      <c r="B359" s="0" t="n">
+      <c r="B360" s="0" t="n">
         <v>99.647</v>
       </c>
-      <c r="C359" s="0" t="n">
+      <c r="C360" s="0" t="n">
         <v>100.646</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="1" t="n">
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="n">
         <v>39767</v>
       </c>
-      <c r="B360" s="0" t="n">
+      <c r="B361" s="0" t="n">
         <v>99.693</v>
       </c>
-      <c r="C360" s="0" t="n">
+      <c r="C361" s="0" t="n">
         <v>100.661</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="1" t="n">
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="n">
         <v>39797</v>
       </c>
-      <c r="B361" s="0" t="n">
+      <c r="B362" s="0" t="n">
         <v>99.739</v>
       </c>
-      <c r="C361" s="0" t="n">
+      <c r="C362" s="0" t="n">
         <v>100.674</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="1" t="n">
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="n">
         <v>39828</v>
       </c>
-      <c r="B362" s="0" t="n">
+      <c r="B363" s="0" t="n">
         <v>99.786</v>
       </c>
-      <c r="C362" s="0" t="n">
+      <c r="C363" s="0" t="n">
         <v>100.684</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="1" t="n">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="n">
         <v>39859</v>
       </c>
-      <c r="B363" s="0" t="n">
+      <c r="B364" s="0" t="n">
         <v>99.833</v>
       </c>
-      <c r="C363" s="0" t="n">
+      <c r="C364" s="0" t="n">
         <v>100.693</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="1" t="n">
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="n">
         <v>39887</v>
       </c>
-      <c r="B364" s="0" t="n">
+      <c r="B365" s="0" t="n">
         <v>99.881</v>
       </c>
-      <c r="C364" s="0" t="n">
+      <c r="C365" s="0" t="n">
         <v>100.701</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="1" t="n">
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="2" t="n">
         <v>39918</v>
       </c>
-      <c r="B365" s="0" t="n">
+      <c r="B366" s="0" t="n">
         <v>99.93</v>
       </c>
-      <c r="C365" s="0" t="n">
+      <c r="C366" s="0" t="n">
         <v>100.707</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="1" t="n">
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="2" t="n">
         <v>39948</v>
       </c>
-      <c r="B366" s="0" t="n">
+      <c r="B367" s="0" t="n">
         <v>99.981</v>
       </c>
-      <c r="C366" s="0" t="n">
+      <c r="C367" s="0" t="n">
         <v>100.712</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="1" t="n">
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="2" t="n">
         <v>39979</v>
       </c>
-      <c r="B367" s="0" t="n">
+      <c r="B368" s="0" t="n">
         <v>100.033</v>
       </c>
-      <c r="C367" s="0" t="n">
+      <c r="C368" s="0" t="n">
         <v>100.716</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="1" t="n">
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="2" t="n">
         <v>40009</v>
       </c>
-      <c r="B368" s="0" t="n">
+      <c r="B369" s="0" t="n">
         <v>100.087</v>
       </c>
-      <c r="C368" s="0" t="n">
+      <c r="C369" s="0" t="n">
         <v>100.72</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="1" t="n">
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="n">
         <v>40040</v>
       </c>
-      <c r="B369" s="0" t="n">
+      <c r="B370" s="0" t="n">
         <v>100.143</v>
       </c>
-      <c r="C369" s="0" t="n">
+      <c r="C370" s="0" t="n">
         <v>100.724</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="1" t="n">
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="2" t="n">
         <v>40071</v>
       </c>
-      <c r="B370" s="0" t="n">
+      <c r="B371" s="0" t="n">
         <v>100.201</v>
       </c>
-      <c r="C370" s="0" t="n">
+      <c r="C371" s="0" t="n">
         <v>100.727</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="1" t="n">
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="n">
         <v>40101</v>
       </c>
-      <c r="B371" s="0" t="n">
+      <c r="B372" s="0" t="n">
         <v>100.262</v>
       </c>
-      <c r="C371" s="0" t="n">
+      <c r="C372" s="0" t="n">
         <v>100.73</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="1" t="n">
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="2" t="n">
         <v>40132</v>
       </c>
-      <c r="B372" s="0" t="n">
+      <c r="B373" s="0" t="n">
         <v>100.325</v>
       </c>
-      <c r="C372" s="0" t="n">
+      <c r="C373" s="0" t="n">
         <v>100.733</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="1" t="n">
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="2" t="n">
         <v>40162</v>
       </c>
-      <c r="B373" s="0" t="n">
+      <c r="B374" s="0" t="n">
         <v>100.39</v>
       </c>
-      <c r="C373" s="0" t="n">
+      <c r="C374" s="0" t="n">
         <v>100.736</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="1" t="n">
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="n">
         <v>40193</v>
       </c>
-      <c r="B374" s="0" t="n">
+      <c r="B375" s="0" t="n">
         <v>100.458</v>
       </c>
-      <c r="C374" s="0" t="n">
+      <c r="C375" s="0" t="n">
         <v>100.739</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="1" t="n">
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="2" t="n">
         <v>40224</v>
       </c>
-      <c r="B375" s="0" t="n">
+      <c r="B376" s="0" t="n">
         <v>100.528</v>
       </c>
-      <c r="C375" s="0" t="n">
+      <c r="C376" s="0" t="n">
         <v>100.741</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="1" t="n">
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="2" t="n">
         <v>40252</v>
       </c>
-      <c r="B376" s="0" t="n">
+      <c r="B377" s="0" t="n">
         <v>100.601</v>
       </c>
-      <c r="C376" s="0" t="n">
+      <c r="C377" s="0" t="n">
         <v>100.743</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="1" t="n">
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="2" t="n">
         <v>40283</v>
       </c>
-      <c r="B377" s="0" t="n">
+      <c r="B378" s="0" t="n">
         <v>100.677</v>
       </c>
-      <c r="C377" s="0" t="n">
+      <c r="C378" s="0" t="n">
         <v>100.746</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="1" t="n">
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="2" t="n">
         <v>40313</v>
       </c>
-      <c r="B378" s="0" t="n">
+      <c r="B379" s="0" t="n">
         <v>100.756</v>
       </c>
-      <c r="C378" s="0" t="n">
+      <c r="C379" s="0" t="n">
         <v>100.749</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="1" t="n">
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="2" t="n">
         <v>40344</v>
       </c>
-      <c r="B379" s="0" t="n">
+      <c r="B380" s="0" t="n">
         <v>100.837</v>
       </c>
-      <c r="C379" s="0" t="n">
+      <c r="C380" s="0" t="n">
         <v>100.752</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="1" t="n">
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="2" t="n">
         <v>40374</v>
       </c>
-      <c r="B380" s="0" t="n">
+      <c r="B381" s="0" t="n">
         <v>100.922</v>
       </c>
-      <c r="C380" s="0" t="n">
+      <c r="C381" s="0" t="n">
         <v>100.755</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="1" t="n">
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="2" t="n">
         <v>40405</v>
       </c>
-      <c r="B381" s="0" t="n">
+      <c r="B382" s="0" t="n">
         <v>101.009</v>
       </c>
-      <c r="C381" s="0" t="n">
+      <c r="C382" s="0" t="n">
         <v>100.758</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="1" t="n">
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="2" t="n">
         <v>40436</v>
       </c>
-      <c r="B382" s="0" t="n">
+      <c r="B383" s="0" t="n">
         <v>101.098</v>
       </c>
-      <c r="C382" s="0" t="n">
+      <c r="C383" s="0" t="n">
         <v>100.762</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="1" t="n">
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="2" t="n">
         <v>40466</v>
       </c>
-      <c r="B383" s="0" t="n">
+      <c r="B384" s="0" t="n">
         <v>101.191</v>
       </c>
-      <c r="C383" s="0" t="n">
+      <c r="C384" s="0" t="n">
         <v>100.765</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="1" t="n">
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="2" t="n">
         <v>40497</v>
       </c>
-      <c r="B384" s="0" t="n">
+      <c r="B385" s="0" t="n">
         <v>101.286</v>
       </c>
-      <c r="C384" s="0" t="n">
+      <c r="C385" s="0" t="n">
         <v>100.769</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="1" t="n">
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="2" t="n">
         <v>40527</v>
       </c>
-      <c r="B385" s="0" t="n">
+      <c r="B386" s="0" t="n">
         <v>101.384</v>
       </c>
-      <c r="C385" s="0" t="n">
+      <c r="C386" s="0" t="n">
         <v>100.773</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="1" t="n">
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="2" t="n">
         <v>40558</v>
       </c>
-      <c r="B386" s="0" t="n">
+      <c r="B387" s="0" t="n">
         <v>101.485</v>
       </c>
-      <c r="C386" s="0" t="n">
+      <c r="C387" s="0" t="n">
         <v>100.777</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1" t="n">
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="2" t="n">
         <v>40589</v>
       </c>
-      <c r="B387" s="0" t="n">
+      <c r="B388" s="0" t="n">
         <v>101.589</v>
       </c>
-      <c r="C387" s="0" t="n">
+      <c r="C388" s="0" t="n">
         <v>100.782</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="1" t="n">
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="2" t="n">
         <v>40617</v>
       </c>
-      <c r="B388" s="0" t="n">
+      <c r="B389" s="0" t="n">
         <v>101.695</v>
       </c>
-      <c r="C388" s="0" t="n">
+      <c r="C389" s="0" t="n">
         <v>100.787</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="1" t="n">
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="2" t="n">
         <v>40648</v>
       </c>
-      <c r="B389" s="0" t="n">
+      <c r="B390" s="0" t="n">
         <v>101.804</v>
       </c>
-      <c r="C389" s="0" t="n">
+      <c r="C390" s="0" t="n">
         <v>100.791</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="1" t="n">
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="2" t="n">
         <v>40678</v>
       </c>
-      <c r="B390" s="0" t="n">
+      <c r="B391" s="0" t="n">
         <v>101.916</v>
       </c>
-      <c r="C390" s="0" t="n">
+      <c r="C391" s="0" t="n">
         <v>100.796</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="1" t="n">
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="2" t="n">
         <v>40709</v>
       </c>
-      <c r="B391" s="0" t="n">
+      <c r="B392" s="0" t="n">
         <v>102.031</v>
       </c>
-      <c r="C391" s="0" t="n">
+      <c r="C392" s="0" t="n">
         <v>100.801</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="1" t="n">
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="2" t="n">
         <v>40739</v>
       </c>
-      <c r="B392" s="0" t="n">
+      <c r="B393" s="0" t="n">
         <v>102.148</v>
       </c>
-      <c r="C392" s="0" t="n">
+      <c r="C393" s="0" t="n">
         <v>100.806</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="1" t="n">
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="2" t="n">
         <v>40770</v>
       </c>
-      <c r="B393" s="0" t="n">
+      <c r="B394" s="0" t="n">
         <v>102.267</v>
       </c>
-      <c r="C393" s="0" t="n">
+      <c r="C394" s="0" t="n">
         <v>100.811</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="1" t="n">
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="2" t="n">
         <v>40801</v>
       </c>
-      <c r="B394" s="0" t="n">
+      <c r="B395" s="0" t="n">
         <v>102.389</v>
       </c>
-      <c r="C394" s="0" t="n">
+      <c r="C395" s="0" t="n">
         <v>100.816</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="1" t="n">
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="2" t="n">
         <v>40831</v>
       </c>
-      <c r="B395" s="0" t="n">
+      <c r="B396" s="0" t="n">
         <v>102.514</v>
       </c>
-      <c r="C395" s="0" t="n">
+      <c r="C396" s="0" t="n">
         <v>100.822</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="1" t="n">
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="2" t="n">
         <v>40862</v>
       </c>
-      <c r="B396" s="0" t="n">
+      <c r="B397" s="0" t="n">
         <v>102.641</v>
       </c>
-      <c r="C396" s="0" t="n">
+      <c r="C397" s="0" t="n">
         <v>100.827</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="1" t="n">
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="2" t="n">
         <v>40892</v>
       </c>
-      <c r="B397" s="0" t="n">
+      <c r="B398" s="0" t="n">
         <v>102.77</v>
       </c>
-      <c r="C397" s="0" t="n">
+      <c r="C398" s="0" t="n">
         <v>100.833</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="1" t="n">
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="2" t="n">
         <v>40923</v>
       </c>
-      <c r="B398" s="0" t="n">
+      <c r="B399" s="0" t="n">
         <v>102.901</v>
       </c>
-      <c r="C398" s="0" t="n">
+      <c r="C399" s="0" t="n">
         <v>100.839</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="1" t="n">
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="2" t="n">
         <v>40954</v>
       </c>
-      <c r="B399" s="0" t="n">
+      <c r="B400" s="0" t="n">
         <v>103.035</v>
       </c>
-      <c r="C399" s="0" t="n">
+      <c r="C400" s="0" t="n">
         <v>100.846</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="1" t="n">
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="2" t="n">
         <v>40983</v>
       </c>
-      <c r="B400" s="0" t="n">
+      <c r="B401" s="0" t="n">
         <v>103.171</v>
       </c>
-      <c r="C400" s="0" t="n">
+      <c r="C401" s="0" t="n">
         <v>100.853</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="1" t="n">
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="2" t="n">
         <v>41014</v>
       </c>
-      <c r="B401" s="0" t="n">
+      <c r="B402" s="0" t="n">
         <v>103.309</v>
       </c>
-      <c r="C401" s="0" t="n">
+      <c r="C402" s="0" t="n">
         <v>100.861</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="1" t="n">
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="2" t="n">
         <v>41044</v>
       </c>
-      <c r="B402" s="0" t="n">
+      <c r="B403" s="0" t="n">
         <v>103.449</v>
       </c>
-      <c r="C402" s="0" t="n">
+      <c r="C403" s="0" t="n">
         <v>100.869</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="1" t="n">
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="2" t="n">
         <v>41075</v>
       </c>
-      <c r="B403" s="0" t="n">
+      <c r="B404" s="0" t="n">
         <v>103.591</v>
       </c>
-      <c r="C403" s="0" t="n">
+      <c r="C404" s="0" t="n">
         <v>100.877</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="1" t="n">
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="2" t="n">
         <v>41105</v>
       </c>
-      <c r="B404" s="0" t="n">
+      <c r="B405" s="0" t="n">
         <v>103.735</v>
       </c>
-      <c r="C404" s="0" t="n">
+      <c r="C405" s="0" t="n">
         <v>100.886</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="1" t="n">
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="2" t="n">
         <v>41136</v>
       </c>
-      <c r="B405" s="0" t="n">
+      <c r="B406" s="0" t="n">
         <v>103.881</v>
       </c>
-      <c r="C405" s="0" t="n">
+      <c r="C406" s="0" t="n">
         <v>100.896</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="1" t="n">
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="2" t="n">
         <v>41167</v>
       </c>
-      <c r="B406" s="0" t="n">
+      <c r="B407" s="0" t="n">
         <v>104.029</v>
       </c>
-      <c r="C406" s="0" t="n">
+      <c r="C407" s="0" t="n">
         <v>100.906</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="1" t="n">
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="2" t="n">
         <v>41197</v>
       </c>
-      <c r="B407" s="0" t="n">
+      <c r="B408" s="0" t="n">
         <v>104.179</v>
       </c>
-      <c r="C407" s="0" t="n">
+      <c r="C408" s="0" t="n">
         <v>100.917</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="1" t="n">
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="2" t="n">
         <v>41228</v>
       </c>
-      <c r="B408" s="0" t="n">
+      <c r="B409" s="0" t="n">
         <v>104.331</v>
       </c>
-      <c r="C408" s="0" t="n">
+      <c r="C409" s="0" t="n">
         <v>100.928</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="1" t="n">
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="2" t="n">
         <v>41258</v>
       </c>
-      <c r="B409" s="0" t="n">
+      <c r="B410" s="0" t="n">
         <v>104.484</v>
       </c>
-      <c r="C409" s="0" t="n">
+      <c r="C410" s="0" t="n">
         <v>100.941</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="1" t="n">
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="2" t="n">
         <v>41289</v>
       </c>
-      <c r="B410" s="0" t="n">
+      <c r="B411" s="0" t="n">
         <v>104.639</v>
       </c>
-      <c r="C410" s="0" t="n">
+      <c r="C411" s="0" t="n">
         <v>100.954</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="1" t="n">
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="2" t="n">
         <v>41320</v>
       </c>
-      <c r="B411" s="0" t="n">
+      <c r="B412" s="0" t="n">
         <v>104.796</v>
       </c>
-      <c r="C411" s="0" t="n">
+      <c r="C412" s="0" t="n">
         <v>100.968</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="1" t="n">
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="n">
         <v>41348</v>
       </c>
-      <c r="B412" s="0" t="n">
+      <c r="B413" s="0" t="n">
         <v>104.955</v>
       </c>
-      <c r="C412" s="0" t="n">
+      <c r="C413" s="0" t="n">
         <v>100.983</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1" t="n">
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="n">
         <v>41379</v>
       </c>
-      <c r="B413" s="0" t="n">
+      <c r="B414" s="0" t="n">
         <v>105.115</v>
       </c>
-      <c r="C413" s="0" t="n">
+      <c r="C414" s="0" t="n">
         <v>100.998</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="1" t="n">
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="n">
         <v>41409</v>
       </c>
-      <c r="B414" s="0" t="n">
+      <c r="B415" s="0" t="n">
         <v>105.277</v>
       </c>
-      <c r="C414" s="0" t="n">
+      <c r="C415" s="0" t="n">
         <v>101.015</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="1" t="n">
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="2" t="n">
         <v>41440</v>
       </c>
-      <c r="B415" s="0" t="n">
+      <c r="B416" s="0" t="n">
         <v>105.44</v>
       </c>
-      <c r="C415" s="0" t="n">
+      <c r="C416" s="0" t="n">
         <v>101.032</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="1" t="n">
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="2" t="n">
         <v>41470</v>
       </c>
-      <c r="B416" s="0" t="n">
+      <c r="B417" s="0" t="n">
         <v>105.605</v>
       </c>
-      <c r="C416" s="0" t="n">
+      <c r="C417" s="0" t="n">
         <v>101.05</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="1" t="n">
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="2" t="n">
         <v>41501</v>
       </c>
-      <c r="B417" s="0" t="n">
+      <c r="B418" s="0" t="n">
         <v>105.771</v>
       </c>
-      <c r="C417" s="0" t="n">
+      <c r="C418" s="0" t="n">
         <v>101.069</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="1" t="n">
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="2" t="n">
         <v>41532</v>
       </c>
-      <c r="B418" s="0" t="n">
+      <c r="B419" s="0" t="n">
         <v>105.938</v>
       </c>
-      <c r="C418" s="0" t="n">
+      <c r="C419" s="0" t="n">
         <v>101.089</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="1" t="n">
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="2" t="n">
         <v>41562</v>
       </c>
-      <c r="B419" s="0" t="n">
+      <c r="B420" s="0" t="n">
         <v>106.107</v>
       </c>
-      <c r="C419" s="0" t="n">
+      <c r="C420" s="0" t="n">
         <v>101.11</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="1" t="n">
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="2" t="n">
         <v>41593</v>
       </c>
-      <c r="B420" s="0" t="n">
+      <c r="B421" s="0" t="n">
         <v>106.277</v>
       </c>
-      <c r="C420" s="0" t="n">
+      <c r="C421" s="0" t="n">
         <v>101.131</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="1" t="n">
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="2" t="n">
         <v>41623</v>
       </c>
-      <c r="B421" s="0" t="n">
+      <c r="B422" s="0" t="n">
         <v>106.448</v>
       </c>
-      <c r="C421" s="0" t="n">
+      <c r="C422" s="0" t="n">
         <v>101.153</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="1" t="n">
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="2" t="n">
         <v>41654</v>
       </c>
-      <c r="B422" s="0" t="n">
+      <c r="B423" s="0" t="n">
         <v>106.62</v>
       </c>
-      <c r="C422" s="0" t="n">
+      <c r="C423" s="0" t="n">
         <v>101.175</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="1" t="n">
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="2" t="n">
         <v>41685</v>
       </c>
-      <c r="B423" s="0" t="n">
+      <c r="B424" s="0" t="n">
         <v>106.793</v>
       </c>
-      <c r="C423" s="0" t="n">
+      <c r="C424" s="0" t="n">
         <v>101.198</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="1" t="n">
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="2" t="n">
         <v>41713</v>
       </c>
-      <c r="B424" s="0" t="n">
+      <c r="B425" s="0" t="n">
         <v>106.967</v>
       </c>
-      <c r="C424" s="0" t="n">
+      <c r="C425" s="0" t="n">
         <v>101.222</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="1" t="n">
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="2" t="n">
         <v>41744</v>
       </c>
-      <c r="B425" s="0" t="n">
+      <c r="B426" s="0" t="n">
         <v>107.143</v>
       </c>
-      <c r="C425" s="0" t="n">
+      <c r="C426" s="0" t="n">
         <v>101.246</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="1" t="n">
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="2" t="n">
         <v>41774</v>
       </c>
-      <c r="B426" s="0" t="n">
+      <c r="B427" s="0" t="n">
         <v>107.319</v>
       </c>
-      <c r="C426" s="0" t="n">
+      <c r="C427" s="0" t="n">
         <v>101.271</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="1" t="n">
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="2" t="n">
         <v>41805</v>
       </c>
-      <c r="B427" s="0" t="n">
+      <c r="B428" s="0" t="n">
         <v>107.495</v>
       </c>
-      <c r="C427" s="0" t="n">
+      <c r="C428" s="0" t="n">
         <v>101.296</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="1" t="n">
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="2" t="n">
         <v>41835</v>
       </c>
-      <c r="B428" s="0" t="n">
+      <c r="B429" s="0" t="n">
         <v>107.673</v>
       </c>
-      <c r="C428" s="0" t="n">
+      <c r="C429" s="0" t="n">
         <v>101.321</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="1" t="n">
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="2" t="n">
         <v>41866</v>
       </c>
-      <c r="B429" s="0" t="n">
+      <c r="B430" s="0" t="n">
         <v>107.851</v>
       </c>
-      <c r="C429" s="0" t="n">
+      <c r="C430" s="0" t="n">
         <v>101.347</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="1" t="n">
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="2" t="n">
         <v>41897</v>
       </c>
-      <c r="B430" s="0" t="n">
+      <c r="B431" s="0" t="n">
         <v>108.029</v>
       </c>
-      <c r="C430" s="0" t="n">
+      <c r="C431" s="0" t="n">
         <v>101.374</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="1" t="n">
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="2" t="n">
         <v>41927</v>
       </c>
-      <c r="B431" s="0" t="n">
+      <c r="B432" s="0" t="n">
         <v>108.209</v>
       </c>
-      <c r="C431" s="0" t="n">
+      <c r="C432" s="0" t="n">
         <v>101.401</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="1" t="n">
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="2" t="n">
         <v>41958</v>
       </c>
-      <c r="B432" s="0" t="n">
+      <c r="B433" s="0" t="n">
         <v>108.388</v>
       </c>
-      <c r="C432" s="0" t="n">
+      <c r="C433" s="0" t="n">
         <v>101.428</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="1" t="n">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="2" t="n">
         <v>41988</v>
       </c>
-      <c r="B433" s="0" t="n">
+      <c r="B434" s="0" t="n">
         <v>108.568</v>
       </c>
-      <c r="C433" s="0" t="n">
+      <c r="C434" s="0" t="n">
         <v>101.455</v>
       </c>
     </row>
